--- a/COMP397-SlotMachineDemo/Assets/images/AssetInfo.xlsx
+++ b/COMP397-SlotMachineDemo/Assets/images/AssetInfo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>OBJECT</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Tile3</t>
+  </si>
+  <si>
+    <t>Bet Line</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -148,6 +151,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="193" zoomScaleNormal="193" zoomScalePageLayoutView="193" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -591,6 +597,23 @@
         <v>192</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>250</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>61</v>
+      </c>
+      <c r="E10" s="2">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
